--- a/docs/DGA_Document.xlsx
+++ b/docs/DGA_Document.xlsx
@@ -1,103 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saleh/OneDrive/Research/DGA/DGA/DGA/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="2160" windowHeight="4620" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="440" windowWidth="19140" windowHeight="12860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Code" sheetId="2" r:id="rId2"/>
-    <sheet name="UI" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Code" sheetId="2" r:id="rId1"/>
+    <sheet name="UI" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
-  <si>
-    <t>Page1</t>
-  </si>
-  <si>
-    <t>Main form</t>
-  </si>
-  <si>
-    <t>Select input type</t>
-  </si>
-  <si>
-    <t>Single Data</t>
-  </si>
-  <si>
-    <t>For multi data choose method</t>
-  </si>
-  <si>
-    <t>Page2</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>Start: select excel file input</t>
-  </si>
-  <si>
-    <t>page5</t>
-  </si>
-  <si>
-    <t>Multidata /ACT (All methods)</t>
-  </si>
-  <si>
-    <t>Multidata / ACT Single method</t>
-  </si>
-  <si>
-    <t>Out1</t>
-  </si>
-  <si>
-    <t>Adeel</t>
-  </si>
-  <si>
-    <t>Multidata all methods</t>
-  </si>
-  <si>
-    <t>DDF_FUN</t>
-  </si>
-  <si>
-    <t>SFDD method</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Duval</t>
-  </si>
-  <si>
-    <t>IEC_FUN</t>
-  </si>
-  <si>
-    <t>DOV_FUN</t>
-  </si>
-  <si>
-    <t>IEC method</t>
-  </si>
-  <si>
-    <t>KEY_FUN</t>
-  </si>
-  <si>
-    <t>key method</t>
-  </si>
-  <si>
-    <t>ROG_FUN</t>
-  </si>
-  <si>
-    <t>Roger method</t>
-  </si>
-  <si>
-    <t>single data</t>
-  </si>
-  <si>
-    <t>Multidata single method</t>
-  </si>
-  <si>
-    <t>Multiple calls to method of single data</t>
   </si>
   <si>
     <t>DGA_1</t>
@@ -235,21 +168,6 @@
 DGAs_n({'DGA_Duval','DGA_IEC','DGA_Roger4'},x)</t>
   </si>
   <si>
-    <t>Method Name</t>
-  </si>
-  <si>
-    <t>Function name</t>
-  </si>
-  <si>
-    <t>DGA_Duval</t>
-  </si>
-  <si>
-    <t>DGA_Roger4</t>
-  </si>
-  <si>
-    <t>DGA_IEC</t>
-  </si>
-  <si>
     <t>Read_Config</t>
   </si>
   <si>
@@ -268,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,12 +290,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -407,12 +325,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -616,142 +534,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="41.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="54.83203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -761,287 +632,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="41.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="54.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45">
-      <c r="C3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="105">
-      <c r="A5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="105">
-      <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>